--- a/biology/Médecine/Pasteur_(pièce_de_théâtre)/Pasteur_(pièce_de_théâtre).xlsx
+++ b/biology/Médecine/Pasteur_(pièce_de_théâtre)/Pasteur_(pièce_de_théâtre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pasteur_(pi%C3%A8ce_de_th%C3%A9%C3%A2tre)</t>
+          <t>Pasteur_(pièce_de_théâtre)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pasteur est une pièce de théâtre de Sacha Guitry représentée pour la première fois sur la scène du théâtre du Vaudeville, le 23 janvier 1919.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pasteur_(pi%C3%A8ce_de_th%C3%A9%C3%A2tre)</t>
+          <t>Pasteur_(pièce_de_théâtre)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Distribution à la création</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pelletier : Maurice de Féraudy
 Jacques : René Hiéronimus
@@ -540,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pasteur_(pi%C3%A8ce_de_th%C3%A9%C3%A2tre)</t>
+          <t>Pasteur_(pièce_de_théâtre)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -558,7 +572,9 @@
           <t>Au cinéma</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pasteur
  Portail de la littérature française   Portail du théâtre   Portail de la médecine                   </t>
